--- a/Математика/ДЗ_1.xlsx
+++ b/Математика/ДЗ_1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tony_\OneDrive\Документы\omstu-works-2\Математика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F67A05-993C-4996-9C19-16417F0244BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BA83B0-4340-49B2-9611-A91C2D0A0708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{1CF31AF0-7197-4C31-9E7C-A0D24E014F79}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="метод половинного деления" sheetId="1" r:id="rId1"/>
+    <sheet name="метод хорд и касательных" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>n</t>
   </si>
@@ -96,6 +97,36 @@
   </si>
   <si>
     <t>Ответ</t>
+  </si>
+  <si>
+    <t>delta_a_n</t>
+  </si>
+  <si>
+    <t>delta_b_n</t>
+  </si>
+  <si>
+    <t>F'(a_n)</t>
+  </si>
+  <si>
+    <t>1/x+2/x^3</t>
+  </si>
+  <si>
+    <t>Производная I</t>
+  </si>
+  <si>
+    <t>Производная II</t>
+  </si>
+  <si>
+    <t>"-1/(x^2)-6/(x^4)"</t>
+  </si>
+  <si>
+    <t>F'</t>
+  </si>
+  <si>
+    <t>F''</t>
+  </si>
+  <si>
+    <t>|b_n-a_n|&lt;2E</t>
   </si>
 </sst>
 </file>
@@ -156,11 +187,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -283,7 +317,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$D$4:$D$103</c:f>
+              <c:f>'метод половинного деления'!$D$4:$D$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -592,7 +626,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$E$4:$E$103</c:f>
+              <c:f>'метод половинного деления'!$E$4:$E$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -936,7 +970,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$D$4:$D$103</c:f>
+              <c:f>'метод половинного деления'!$D$4:$D$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1245,7 +1279,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$F$4:$F$103</c:f>
+              <c:f>'метод половинного деления'!$F$4:$F$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1556,6 +1590,1567 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0392-4FE8-941E-B68E5ADBE75C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="752977103"/>
+        <c:axId val="752990543"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="752977103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="752990543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="752990543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="752977103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>F1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'метод хорд и касательных'!$D$4:$D$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.3800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.4300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.4800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.5000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.5100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.5200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.5300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.5400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.5500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.5600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.5800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.6100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6300000000000006</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6600000000000006</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.6700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.6800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.6900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7100000000000006</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7300000000000006</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.7400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.7600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.7700000000000007</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7800000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.7900000000000007</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.8100000000000007</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.8200000000000007</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.8300000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.8400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.8500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8600000000000008</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8700000000000008</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.8900000000000008</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.9000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.9100000000000008</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.9200000000000008</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.9300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.9400000000000008</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.9500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.9700000000000009</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.9800000000000009</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.9900000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'метод хорд и касательных'!$E$4:$E$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.950330853168092E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.980262729617973E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9558802241544429E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9220713153281329E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8790164169432049E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8268908123975824E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7658648473814864E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6961041136128394E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6177696241052412E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5310179804324935E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10436001532424286</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11332868530700327</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12221763272424931</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13102826240640419</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13976194237515882</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14842000511827341</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15700374880966489</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.16551443847757352</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17395330712343815</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.18232155679395479</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.19062035960864987</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.19885085874516534</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.20701416938432629</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.21511137961694568</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.22314355131420993</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.23111172096338681</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.23901690047050009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.24686007793152598</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.25464221837358092</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.26236426446749128</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.27002713721306038</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.27763173659827972</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.28517894223366264</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.29266961396282021</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.30010459245033833</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.30748469974796089</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.31481073984003377</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.32208349916911355</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.32930374714260063</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.33647223662121317</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.34358970439007719</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.35065687161316961</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.35767444427181616</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36464311358790952</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.37156355643248329</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.37843643572024532</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.38526240079064522</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.39204208777602401</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.39877611995736806</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.40546510810816466</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.41210965082683326</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.41871033485818532</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.42526773540434443</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.43178241642553811</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.43825493093115558</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.44468582126144601</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.45107561936021701</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.45742484703887576</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.4637340162321405</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.47000362924573591</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.47623417899637194</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.48242614924429306</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.4885800148186713</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.49469624183610739</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.5007752879124896</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.50681760236845219</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.51282362642866408</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.51879379341516796</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.52472852893498245</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.53062825106217071</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.5364933705145688</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.54232429082536204</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.54812140850968794</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.55388511322643807</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.5596157879354231</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.56531380905006079</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.57097954658573813</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.57661336430399412</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.58221561985266401</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.58778666490211939</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.59332684527773483</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.59883650108870434</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.60431596685333</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.60976557162089462</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.61518563909023383</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.62057648772511032</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.6259384308664957</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.6312717768418582</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.63657682907155144</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.64185388617239525</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.64710324205853897</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.65232518603969059</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.65752000291679458</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.66268797307523719</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.66782937257565589</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.67294447324242634</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.67803354274989758</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.68309684470644427</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.68813463873640146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA18-4E4F-8975-D0465550A232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>F2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'метод хорд и касательных'!$D$4:$D$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.3800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.4300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.4800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.5000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.5100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.5200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.5300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.5400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.5500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.5600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.5800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.6100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6300000000000006</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6600000000000006</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.6700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.6800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.6900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7100000000000006</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7300000000000006</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.7400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.7600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.7700000000000007</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7800000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.7900000000000007</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.8100000000000007</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.8200000000000007</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.8300000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.8400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.8500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8600000000000008</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8700000000000008</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.8900000000000008</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.9000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.9100000000000008</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.9200000000000008</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.9300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.9400000000000008</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.9500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.9700000000000009</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.9800000000000009</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.9900000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'метод хорд и касательных'!$F$4:$F$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98029604940692083</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96116878123798544</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94259590913375435</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92455621301775137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90702947845804982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88999644001423983</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87343872827321156</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85733882030178321</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84167999326655996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82644628099173545</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8116224332440547</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79719387755102034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.78314668337379567</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76946752847029842</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75614366729678628</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.74316290130796647</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.73051355102637128</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.7181844297615626</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.70616481886872373</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.69444444444444431</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.68301345536507052</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.67186240257995145</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.66098221957829306</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65036420395421413</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.63999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.62988158226253443</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.6200012400024798</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.61035156249999978</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.60092542515473812</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.59171597633136075</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.58271662490530829</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.57392102846648274</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.56532308214144356</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.55691690799732652</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.54869684499314098</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.54065743944636657</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.53279343598486839</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.52509976895610144</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.51757155426737722</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.51020408163265274</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.50299280720285677</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.49593334655822235</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.48902146804244684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.48225308641975279</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.47562425683709836</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46913116907487312</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46277014207043338</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.4565376186997806</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.45043016080356713</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.4444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.43857725538353554</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.43282548476454269</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.42718612499465991</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.42165626581210974</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.4162330905306969</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.41091387245233374</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.40569597143900338</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.40057683063611571</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.39555397333966197</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.39062499999999972</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.385787585355503</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.38103947568968116</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.37637848620572817</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.37180249851278974</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.36730945821854888</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.36289737262302196</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.35856430850873078</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.35430839002267545</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.35012779664577548</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.34602076124567449</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.34198556820902132</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.33802055164954004</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.33412409368839563</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.33029462280354049</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.32653061224489771</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.32283057851239644</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.31919307989402762</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.3156167150612294</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.31210012171904722</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.30864197530864174</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.30524098775983616</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.30189590629151047</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.29860551225775606</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.29536862003780695</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.2921840759678595</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.28905075731298396</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.2859675712774169</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.28293345405160686</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.27994736989445962</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.27700831024930728</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.27411529289219022</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.27126736111111088</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.26846358291497735</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.26570305027101687</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.26298487836949352</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.2603082049146187</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.25767218944059345</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.25507601265176999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.25251887578596477</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA18-4E4F-8975-D0465550A232}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1779,7 +3374,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2336,6 +4487,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EE6D4F-9797-4750-A667-0A4A7CFF66A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -2655,8 +4849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A39C61-D37F-4390-8BB5-1D2231BEB643}">
   <dimension ref="A1:S103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5692,4 +7886,3628 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690C8C8E-D45F-487D-9FBC-F5553011C478}">
+  <dimension ref="A1:W103"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.1328125" customWidth="1"/>
+    <col min="2" max="2" width="13.06640625" customWidth="1"/>
+    <col min="11" max="11" width="16.59765625" customWidth="1"/>
+    <col min="18" max="18" width="9.06640625" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="22" max="22" width="14.53125" customWidth="1"/>
+    <col min="23" max="23" width="15.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="e">
+        <f>LN(A4)-1/(A4^2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <f>LN(D4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f>1/(D4^2)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <f>LN(D4)-1/(D4^2)</f>
+        <v>-1</v>
+      </c>
+      <c r="H4" s="1">
+        <f>1/D4+2/(D4^3)</f>
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <f>-1/(D4^2)-6/(D4^4)</f>
+        <v>-7</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <f>LN(A5)-1/(A5^2)</f>
+        <v>-1</v>
+      </c>
+      <c r="D5" s="1">
+        <f>D4+0.01</f>
+        <v>1.01</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E68" si="0">LN(D5)</f>
+        <v>9.950330853168092E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F68" si="1">1/(D5^2)</f>
+        <v>0.98029604940692083</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G68" si="2">LN(D5)-1/(D5^2)</f>
+        <v>-0.97034571855375273</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H68" si="3">1/D5+2/(D5^3)</f>
+        <v>2.9312793057562789</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I68" si="4">-1/(D5^2)-6/(D5^4)</f>
+        <v>-6.7461781163038186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:B69" si="5">LN(A6)-1/(A6^2)</f>
+        <v>0.44314718055994529</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:D69" si="6">D5+0.01</f>
+        <v>1.02</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.980262729617973E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96116878123798544</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.94136615394180567</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8650368259568344</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="4"/>
+        <v>-6.5042413373970707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.98750117755699862</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="6"/>
+        <v>1.03</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9558802241544429E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94259590913375435</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.91303710689220996</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8011571051140862</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="4"/>
+        <v>-6.2735181966278883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3237943611198906</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="6"/>
+        <v>1.04</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9220713153281329E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.92455621301775137</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.88533549986447002</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7395311788802914</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="4"/>
+        <v>-6.0533813591961056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5694379124341002</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="6"/>
+        <v>1.05</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8790164169432049E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.90702947845804982</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.85823931428861777</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6800561494439044</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="4"/>
+        <v>-5.8432443272093417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7639816914502773</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="6"/>
+        <v>1.06</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8268908123975824E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.88999644001423983</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.83172753189026405</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6226347924796976</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="4"/>
+        <v>-5.6425584194423628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="5"/>
+        <v>1.9255019857900071</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="6"/>
+        <v>1.07</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>6.7658648473814864E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87343872827321156</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.8057800797993967</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5671751930340401</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="4"/>
+        <v>-5.4508100005583628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="5"/>
+        <v>2.0638165416798357</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="6"/>
+        <v>1.08</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6961041136128394E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.85733882030178321</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.78037777916565476</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>2.513590407966265</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="4"/>
+        <v>-5.2675179370805028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1848788983238738</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>8.6177696241052412E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.84167999326655996</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.75550229702550753</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4617981527826789</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="4"/>
+        <v>-5.0922312596577388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2925850929940461</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5310179804324935E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.82644628099173545</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.73113610118741046</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4117205108940643</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.9245270131821588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="5"/>
+        <v>2.3896308099884531</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10436001532424286</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8116224332440547</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.70726241791981181</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3632836635028012</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.7640082781140549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4779622053435557</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11332868530700327</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.79719387755102034</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.68386519224401709</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3164176384839648</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.6103023479800074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5590321976982233</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1300000000000001</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12221763272424931</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.78314668337379567</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.66092905064954632</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2710560767677799</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.4630590494500524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6339552887989317</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13102826240640419</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.76946752847029842</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.63843926606389423</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2271360148601724</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.3219491926914353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="5"/>
+        <v>2.7036057566577658</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13976194237515882</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.75614366729678628</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.61638172492162746</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="3"/>
+        <v>2.1845976822552799</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.1866631408549839</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="5"/>
+        <v>2.7686824722397811</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1600000000000001</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14842000511827341</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.74316290130796647</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.594742896189693</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="3"/>
+        <v>2.1433843125999421</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.0569094885908124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="5"/>
+        <v>2.8297531364437596</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1700000000000002</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15700374880966489</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.73051355102637128</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.57350980221670644</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="3"/>
+        <v>2.1034419675664462</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.9324138404253239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="5"/>
+        <v>2.8872853381430783</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1800000000000002</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16551443847757352</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.7181844297615626</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.55266999128398908</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0647193724772244</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.8129176806732077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="5"/>
+        <v>2.941668896063947</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1900000000000002</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17395330712343815</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.70616481886872373</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.53221151174528558</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0271677628045772</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.6981773273161083</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="5"/>
+        <v>2.9932322735539909</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18232155679395479</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.69444444444444431</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.51212288765048952</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9907407407407403</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.587962962962961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="5"/>
+        <v>3.042254864027278</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19062035960864987</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.68301345536507052</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.49239309575642065</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9553941410992899</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.4820577366234695</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0889763376558368</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2200000000000002</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19885085874516534</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.67186240257995145</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.47301154383478611</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9210859058687726</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.3802569305829802</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2</v>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26" s="1">
+        <f>L33</f>
+        <v>1.5315842828180928</v>
+      </c>
+      <c r="T26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1336038567609079</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2300000000000002</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20701416938432629</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.66098221957829306</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.4539680501939668</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8877759667939724</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.2823671871701743</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1763177192368346</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2400000000000002</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21511137961694568</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.65036420395421413</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.43525282433726842</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8554261354100223</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.1882057906642061</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2172758248682007</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2500000000000002</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22314355131420993</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.63999999999999979</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.41685644868578986</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8239999999999994</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.0975999999999981</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <f>L26</f>
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
+        <f>M26</f>
+        <v>2</v>
+      </c>
+      <c r="N29" s="1">
+        <f>M29-L29</f>
+        <v>1</v>
+      </c>
+      <c r="O29" s="1">
+        <f>LN(L29)-1/(L29^2)</f>
+        <v>-1</v>
+      </c>
+      <c r="P29" s="1">
+        <f>LN(M29)-1/(M29^2)</f>
+        <v>0.44314718055994529</v>
+      </c>
+      <c r="Q29" s="1">
+        <f>-O29/S29</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R29" s="1">
+        <f>-(P29*N29)/(P29-O29)</f>
+        <v>-0.307069983248696</v>
+      </c>
+      <c r="S29" s="1">
+        <f>1/L29+2/(L29^3)</f>
+        <v>3</v>
+      </c>
+      <c r="T29" s="1" t="str">
+        <f>IF(ABS(N29)&lt;(2*$W$29), "ВСЁ","ЕЩЁ")</f>
+        <v>ЕЩЁ</v>
+      </c>
+      <c r="W29" s="1">
+        <f>10^-4</f>
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2566172480806537</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2600000000000002</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23111172096338681</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.62988158226253443</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.3987698612991476</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7934628289881496</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.0103864283038577</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <f>L29+Q29</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="M30" s="1">
+        <f>M29+R29</f>
+        <v>1.6929300167513039</v>
+      </c>
+      <c r="N30" s="1">
+        <f>M30-L30</f>
+        <v>0.35959668341797069</v>
+      </c>
+      <c r="O30" s="1">
+        <f>LN(L30)-1/(L30^2)</f>
+        <v>-0.27481792754821915</v>
+      </c>
+      <c r="P30" s="1">
+        <f>LN(M30)-1/(M30^2)</f>
+        <v>0.17754387835262547</v>
+      </c>
+      <c r="Q30" s="1">
+        <f>-O30/S30</f>
+        <v>0.17243477806947083</v>
+      </c>
+      <c r="R30" s="1">
+        <f>-(P30*N30)/(P30-O30)</f>
+        <v>-0.14113523507942241</v>
+      </c>
+      <c r="S30" s="1">
+        <f>1/L30+2/(L30^3)</f>
+        <v>1.59375</v>
+      </c>
+      <c r="T30" s="1" t="str">
+        <f t="shared" ref="T30:T35" si="7">IF(ABS(N30)&lt;(2*$W$29), "ВСЁ","ЕЩЁ")</f>
+        <v>ЕЩЁ</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2944651238918463</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2700000000000002</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23901690047050009</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.6200012400024798</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.38098433953197974</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7637814803188654</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.9264104656301551</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" ref="L31:L35" si="8">L30+Q30</f>
+        <v>1.5057681114028041</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" ref="M31:M35" si="9">M30+R30</f>
+        <v>1.5517947816718816</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" ref="N31:N35" si="10">M31-L31</f>
+        <v>4.6026670269077474E-2</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" ref="O31:O35" si="11">LN(L31)-1/(L31^2)</f>
+        <v>-3.1742778931296567E-2</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" ref="P31:P35" si="12">LN(M31)-1/(M31^2)</f>
+        <v>2.4141354810916116E-2</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" ref="Q31:Q35" si="13">-O31/S31</f>
+        <v>2.5395819304983473E-2</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" ref="R31:R35" si="14">-(P31*N31)/(P31-O31)</f>
+        <v>-1.9883034831611374E-2</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" ref="S31:S35" si="15">1/L31+2/(L31^3)</f>
+        <v>1.2499214358903403</v>
+      </c>
+      <c r="T31" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>ЕЩЁ</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="5"/>
+        <v>3.330928999971122</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2800000000000002</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.24686007793152598</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61035156249999978</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.3634914845684738</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7349243164062493</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.8455257415771467</v>
+      </c>
+      <c r="K32" s="1">
+        <v>3</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5311639307077876</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="9"/>
+        <v>1.5319117468402701</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="10"/>
+        <v>7.478161324825372E-4</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="11"/>
+        <v>-5.08726385536451E-4</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="12"/>
+        <v>3.9588537155110792E-4</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="13"/>
+        <v>4.2035211030513967E-4</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="14"/>
+        <v>-3.2726688011761783E-4</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="15"/>
+        <v>1.2102386857702681</v>
+      </c>
+      <c r="T32" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>ЕЩЁ</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="5"/>
+        <v>3.3661067693443814</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2900000000000003</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25464221837358092</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60092542515473812</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.3462832067811572</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7068611242709113</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.7675936247391548</v>
+      </c>
+      <c r="K33" s="1">
+        <v>4</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5315842828180928</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="9"/>
+        <v>1.5315844799601526</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="10"/>
+        <v>1.9714205978793586E-7</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="11"/>
+        <v>-1.340823105322464E-7</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="12"/>
+        <v>1.0438085989994406E-7</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="13"/>
+        <v>1.1084839460510643E-7</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="14"/>
+        <v>-8.6293651492662946E-8</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="15"/>
+        <v>1.2096008337325046</v>
+      </c>
+      <c r="T33" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>ВСЁ</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4000862705510442</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="6"/>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26236426446749128</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.59171597633136075</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.32935171186386947</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6795630405097852</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.6924827562060138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4329466217588194</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="6"/>
+        <v>1.3100000000000003</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27002713721306038</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58271662490530829</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.31268948769224791</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6530024807714627</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.6200686145515113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4647593402997265</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="6"/>
+        <v>1.3200000000000003</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27763173659827972</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>0.57392102846648274</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.29628929186820302</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6271530734340645</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.5502331099626345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="5"/>
+        <v>3.495589287820934</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="6"/>
+        <v>1.3300000000000003</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28517894223366264</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>0.56532308214144356</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.28014413990778092</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6019895972051781</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.4828642053528518</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="5"/>
+        <v>3.5254954727130472</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="6"/>
+        <v>1.3400000000000003</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29266961396282021</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55691690799732652</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.26424729403450631</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5774879223840692</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.4178555624771429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="5"/>
+        <v>3.5545317349588013</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="6"/>
+        <v>1.3500000000000003</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30010459245033833</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54869684499314098</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.24859225254280265</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5536249555453938</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.3551062112257033</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="5"/>
+        <v>3.5827473335178381</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="6"/>
+        <v>1.3600000000000003</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30748469974796089</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54065743944636657</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.23317273969840568</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5303785874211269</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.2945202404185756</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="5"/>
+        <v>3.6101874524543045</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="6"/>
+        <v>1.3700000000000003</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31481073984003377</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="1"/>
+        <v>0.53279343598486839</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.21798269614483462</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5077276437735301</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.2360065085562408</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="5"/>
+        <v>3.6368936389507622</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="6"/>
+        <v>1.3800000000000003</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32208349916911355</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52509976895610144</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.20301626978698789</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4856518390668132</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.1794783731026079</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="5"/>
+        <v>3.6629041839337226</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="6"/>
+        <v>1.3900000000000003</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32930374714260063</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="1"/>
+        <v>0.51757155426737722</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.18826780712477659</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4641317327588157</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.1248534369878689</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="5"/>
+        <v>3.6882544541139364</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33647223662121317</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="1"/>
+        <v>0.51020408163265274</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.17373184501143957</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4431486880466466</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.0720533111203645</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="5"/>
+        <v>3.7129771827066875</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4100000000000004</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34358970439007719</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="1"/>
+        <v>0.50299280720285677</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.15940310281277958</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4226848329118531</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.0210033917897179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="5"/>
+        <v>3.7371027248593323</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4200000000000004</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35065687161316961</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49593334655822235</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.14527647494505275</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4027230233214396</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.9716326519288498</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="5"/>
+        <v>3.7606592828109231</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4300000000000004</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35767444427181616</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48902146804244684</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.13134702377063068</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3832468084509744</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.923873445280786</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" si="5"/>
+        <v>3.7836731049926411</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4400000000000004</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36464311358790952</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48225308641975279</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.11760997283184327</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="3"/>
+        <v>1.364240397805212</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.8776613225880183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="5"/>
+        <v>3.8061686626098257</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4500000000000004</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37156355643248329</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="1"/>
+        <v>0.47562425683709836</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.10406070040461507</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3456886301201352</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.8329348589881509</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="5"/>
+        <v>3.8281688066970347</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4600000000000004</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37843643572024532</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="1"/>
+        <v>0.46913116907487312</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.0694733354627799E-2</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3275769439381819</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.7896354918602162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" si="5"/>
+        <v>3.8496949081835758</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4700000000000004</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38526240079064522</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="1"/>
+        <v>0.46277014207043338</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="2"/>
+        <v>-7.7507741279788156E-2</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3098913497556912</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.7477073684217679</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" si="5"/>
+        <v>3.8707669831301135</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4800000000000004</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39204208777602401</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4565376186997806</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.4495530923756594E-2</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2926184036483517</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.7070972024281783</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="5"/>
+        <v>3.8914038049827631</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4900000000000004</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39877611995736806</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="1"/>
+        <v>0.45043016080356713</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="2"/>
+        <v>-5.1654040846199067E-2</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2757451822866668</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.6677541393727311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>50</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="5"/>
+        <v>3.911623005428146</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40546510810816466</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4444444444444442</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.8979336336279535E-2</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2592592592592586</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.629629629629628</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>51</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" si="5"/>
+        <v>3.9314411652118304</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5100000000000005</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41210965082683326</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="1"/>
+        <v>0.43857725538353554</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.6467604556702273E-2</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2431486826271989</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.5926773090220654</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>52</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" si="5"/>
+        <v>3.9508738960962204</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5200000000000005</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41871033485818532</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="1"/>
+        <v>0.43282548476454269</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.4115149906357372E-2</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="3"/>
+        <v>1.227401953637556</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.556852886334511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" si="5"/>
+        <v>3.9699359149761162</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5300000000000005</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="0"/>
+        <v>0.42526773540434443</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42718612499465991</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.9183895903154835E-3</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2120080065289669</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.5221140373223792</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="5"/>
+        <v>3.9886411110361539</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5400000000000005</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.43178241642553811</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42165626581210974</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0126150613428364E-2</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1969561893663758</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.488420304803785</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>55</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0070026067200741</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5500000000000005</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="0"/>
+        <v>0.43825493093115558</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4162330905306969</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2021840400458681E-2</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="3"/>
+        <v>1.18223624584606</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.4557330044471088</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>56</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0250328131841293</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5600000000000005</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44468582126144601</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41091387245233374</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="2"/>
+        <v>3.3771948809112273E-2</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1678382980158122</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.4240151358949706</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>57</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0427434808231624</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5700000000000005</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45107561936021701</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="1"/>
+        <v>0.40569597143900338</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="2"/>
+        <v>4.5379647921213628E-2</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1537528298586026</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.3932312988900231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>58</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0601457453858956</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5800000000000005</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45742484703887576</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="1"/>
+        <v>0.40057683063611571</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="2"/>
+        <v>5.6848016402760049E-2</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1399706716912854</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.3633476140909679</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>59</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0772501701338149</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5900000000000005</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4637340162321405</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="1"/>
+        <v>0.39555397333966197</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="2"/>
+        <v>6.8180042892478532E-2</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1264829853329077</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.334331648288426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>60</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0940667844443226</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000005</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47000362924573591</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="1"/>
+        <v>0.39062499999999972</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="2"/>
+        <v>7.9378629245736188E-2</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1132812499999991</v>
+      </c>
+      <c r="I64" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.3061523437499984</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>61</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1106051192122797</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="6"/>
+        <v>1.6100000000000005</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47623417899637194</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="1"/>
+        <v>0.385787585355503</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0446593640868933E-2</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1003572488888234</v>
+      </c>
+      <c r="I65" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.2787799514420801</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>62</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1268742393635103</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="6"/>
+        <v>1.6200000000000006</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="0"/>
+        <v>0.48242614924429306</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38103947568968116</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10138667355461189</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0877030564070134</v>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.2521859678928839</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>63</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1428827737586271</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="6"/>
+        <v>1.6300000000000006</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4885800148186713</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="1"/>
+        <v>0.37637848620572817</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11220152861294314</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" si="3"/>
+        <v>1.075311026019298</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.2263430754768212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>64</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1586389427346715</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="6"/>
+        <v>1.6400000000000006</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" si="0"/>
+        <v>0.49469624183610739</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="1"/>
+        <v>0.37180249851278974</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12289374332331765</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0631737786741335</v>
+      </c>
+      <c r="I68" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.2012250859149078</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1741505835051038</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="6"/>
+        <v>1.6500000000000006</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" ref="E69:E103" si="16">LN(D69)</f>
+        <v>0.5007752879124896</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" ref="F69:F103" si="17">1/(D69^2)</f>
+        <v>0.36730945821854888</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" ref="G69:G103" si="18">LN(D69)-1/(D69^2)</f>
+        <v>0.13346582969394072</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" ref="H69:H103" si="19">1/D69+2/(D69^3)</f>
+        <v>1.0512841917800588</v>
+      </c>
+      <c r="I69" s="1">
+        <f t="shared" ref="I69:I103" si="20">-1/(D69^2)-6/(D69^4)</f>
+        <v>-1.1768068867993722</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>66</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" ref="B70:B103" si="21">LN(A70)-1/(A70^2)</f>
+        <v>4.1894251736150387</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" ref="D70:D94" si="22">D69+0.01</f>
+        <v>1.6600000000000006</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" si="16"/>
+        <v>0.50681760236845219</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="17"/>
+        <v>0.36289737262302196</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="18"/>
+        <v>0.14392022974543023</v>
+      </c>
+      <c r="H70" s="1">
+        <f t="shared" si="19"/>
+        <v>1.0396353887024357</v>
+      </c>
+      <c r="I70" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.1530643909631766</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>67</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="21"/>
+        <v>4.2044698526277671</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="22"/>
+        <v>1.6700000000000006</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="16"/>
+        <v>0.51282362642866408</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="17"/>
+        <v>0.35856430850873078</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="18"/>
+        <v>0.1542593179199333</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="19"/>
+        <v>1.0282207287529705</v>
+      </c>
+      <c r="I71" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.1299744885267962</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>68</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" si="21"/>
+        <v>4.219291442200328</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="22"/>
+        <v>1.6800000000000006</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" si="16"/>
+        <v>0.51879379341516796</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="17"/>
+        <v>0.35430839002267545</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="18"/>
+        <v>0.16448540339249251</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" si="19"/>
+        <v>1.0170337976460417</v>
+      </c>
+      <c r="I72" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.1075150014654374</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>69</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" si="21"/>
+        <v>4.2338964646896775</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="22"/>
+        <v>1.6900000000000006</v>
+      </c>
+      <c r="E73" s="1">
+        <f t="shared" si="16"/>
+        <v>0.52472852893498245</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="17"/>
+        <v>0.35012779664577548</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="18"/>
+        <v>0.17460073228920697</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" si="19"/>
+        <v>1.0060683983973671</v>
+      </c>
+      <c r="I73" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.0856646405499284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>70</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" si="21"/>
+        <v>4.2482911604167066</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="22"/>
+        <v>1.7000000000000006</v>
+      </c>
+      <c r="E74" s="1">
+        <f t="shared" si="16"/>
+        <v>0.53062825106217071</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="17"/>
+        <v>0.34602076124567449</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="18"/>
+        <v>0.18460748981649622</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" si="19"/>
+        <v>0.99531854264196973</v>
+      </c>
+      <c r="I74" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.064402964523891</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>71</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" si="21"/>
+        <v>4.2624815037026922</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="22"/>
+        <v>1.7100000000000006</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" si="16"/>
+        <v>0.5364933705145688</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="17"/>
+        <v>0.34198556820902132</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" si="18"/>
+        <v>0.19450780230554748</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" si="19"/>
+        <v>0.98477844234973211</v>
+      </c>
+      <c r="I75" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.0437103413885043</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>72</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" si="21"/>
+        <v>4.2764732177814873</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="22"/>
+        <v>1.7200000000000006</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" si="16"/>
+        <v>0.54232429082536204</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="17"/>
+        <v>0.33802055164954004</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" si="18"/>
+        <v>0.20430373917582201</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" si="19"/>
+        <v>0.97444250191806947</v>
+      </c>
+      <c r="I76" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.0235679116742962</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>73</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" si="21"/>
+        <v>4.2902717886807613</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="22"/>
+        <v>1.7300000000000006</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" si="16"/>
+        <v>0.54812140850968794</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="17"/>
+        <v>0.33412409368839563</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="18"/>
+        <v>0.21399731482129231</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="19"/>
+        <v>0.96430531062242242</v>
+      </c>
+      <c r="I77" s="1">
+        <f t="shared" si="20"/>
+        <v>-1.0039575535869463</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>74</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" si="21"/>
+        <v>4.30388247815669</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="22"/>
+        <v>1.7400000000000007</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="16"/>
+        <v>0.55388511322643807</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="17"/>
+        <v>0.33029462280354049</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" si="18"/>
+        <v>0.22359049042289758</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" si="19"/>
+        <v>0.95436163540636798</v>
+      </c>
+      <c r="I78" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.98486184992113912</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>75</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" si="21"/>
+        <v>4.3173103357585321</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="22"/>
+        <v>1.7500000000000007</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" si="16"/>
+        <v>0.5596157879354231</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="17"/>
+        <v>0.32653061224489771</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" si="18"/>
+        <v>0.23308517569052539</v>
+      </c>
+      <c r="H79" s="1">
+        <f t="shared" si="19"/>
+        <v>0.94460641399416834</v>
+      </c>
+      <c r="I79" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.96626405664306425</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>76</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" si="21"/>
+        <v>4.3305602100924254</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="22"/>
+        <v>1.7600000000000007</v>
+      </c>
+      <c r="E80" s="1">
+        <f t="shared" si="16"/>
+        <v>0.56531380905006079</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="17"/>
+        <v>0.32283057851239644</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" si="18"/>
+        <v>0.24248323053766435</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" si="19"/>
+        <v>0.93503474830954114</v>
+      </c>
+      <c r="I80" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.94814807304828763</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>77</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" si="21"/>
+        <v>4.3436367593473593</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="22"/>
+        <v>1.7700000000000007</v>
+      </c>
+      <c r="E81" s="1">
+        <f t="shared" si="16"/>
+        <v>0.57097954658573813</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="17"/>
+        <v>0.31919307989402762</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" si="18"/>
+        <v>0.25178646669171051</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" si="19"/>
+        <v>0.92564189818534159</v>
+      </c>
+      <c r="I81" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.93049841340743833</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>78</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" si="21"/>
+        <v>4.3565444611406106</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="22"/>
+        <v>1.7800000000000007</v>
+      </c>
+      <c r="E82" s="1">
+        <f t="shared" si="16"/>
+        <v>0.57661336430399412</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" si="17"/>
+        <v>0.3156167150612294</v>
+      </c>
+      <c r="G82" s="1">
+        <f t="shared" si="18"/>
+        <v>0.26099664924276472</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" si="19"/>
+        <v>0.9164232753496957</v>
+      </c>
+      <c r="I82" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.91330018001747715</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A83" s="1">
+        <v>79</v>
+      </c>
+      <c r="B83" s="1">
+        <f t="shared" si="21"/>
+        <v>4.3692876217347667</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="22"/>
+        <v>1.7900000000000007</v>
+      </c>
+      <c r="E83" s="1">
+        <f t="shared" si="16"/>
+        <v>0.58221561985266401</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="17"/>
+        <v>0.31210012171904722</v>
+      </c>
+      <c r="G83" s="1">
+        <f t="shared" si="18"/>
+        <v>0.27011549813361679</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" si="19"/>
+        <v>0.90737443767491266</v>
+      </c>
+      <c r="I83" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.8965390375813117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A84" s="1">
+        <v>80</v>
+      </c>
+      <c r="B84" s="1">
+        <f t="shared" si="21"/>
+        <v>4.3818703846738813</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="22"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="E84" s="1">
+        <f t="shared" si="16"/>
+        <v>0.58778666490211939</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="17"/>
+        <v>0.30864197530864174</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" si="18"/>
+        <v>0.27914468959347766</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" si="19"/>
+        <v>0.89849108367626829</v>
+      </c>
+      <c r="I84" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.88020118884316312</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A85" s="1">
+        <v>81</v>
+      </c>
+      <c r="B85" s="1">
+        <f t="shared" si="21"/>
+        <v>4.3942967388821632</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="22"/>
+        <v>1.8100000000000007</v>
+      </c>
+      <c r="E85" s="1">
+        <f t="shared" si="16"/>
+        <v>0.59332684527773483</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="17"/>
+        <v>0.30524098775983616</v>
+      </c>
+      <c r="G85" s="1">
+        <f t="shared" si="18"/>
+        <v>0.28808585751789867</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" si="19"/>
+        <v>0.88976904724843742</v>
+      </c>
+      <c r="I85" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.86427335141143868</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A86" s="1">
+        <v>82</v>
+      </c>
+      <c r="B86" s="1">
+        <f t="shared" si="21"/>
+        <v>4.406570526264848</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="22"/>
+        <v>1.8200000000000007</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="shared" si="16"/>
+        <v>0.59883650108870434</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" si="17"/>
+        <v>0.30189590629151047</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" si="18"/>
+        <v>0.29694059479719387</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" si="19"/>
+        <v>0.88120429262803324</v>
+      </c>
+      <c r="I86" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.84874273570494529</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A87" s="1">
+        <v>83</v>
+      </c>
+      <c r="B87" s="1">
+        <f t="shared" si="21"/>
+        <v>4.4186954488475489</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="22"/>
+        <v>1.8300000000000007</v>
+      </c>
+      <c r="E87" s="1">
+        <f t="shared" si="16"/>
+        <v>0.60431596685333</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="17"/>
+        <v>0.29860551225775606</v>
+      </c>
+      <c r="G87" s="1">
+        <f t="shared" si="18"/>
+        <v>0.30571045459557394</v>
+      </c>
+      <c r="H87" s="1">
+        <f t="shared" si="19"/>
+        <v>0.87279290957131783</v>
+      </c>
+      <c r="I87" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.83359702396205737</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A88" s="1">
+        <v>84</v>
+      </c>
+      <c r="B88" s="1">
+        <f t="shared" si="21"/>
+        <v>4.4306750754873043</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="22"/>
+        <v>1.8400000000000007</v>
+      </c>
+      <c r="E88" s="1">
+        <f t="shared" si="16"/>
+        <v>0.60976557162089462</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="17"/>
+        <v>0.29536862003780695</v>
+      </c>
+      <c r="G88" s="1">
+        <f t="shared" si="18"/>
+        <v>0.31439695158308767</v>
+      </c>
+      <c r="H88" s="1">
+        <f t="shared" si="19"/>
+        <v>0.86453110873674632</v>
+      </c>
+      <c r="I88" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.81882435025603717</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A89" s="1">
+        <v>85</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" si="21"/>
+        <v>4.4425128481858183</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="22"/>
+        <v>1.8500000000000008</v>
+      </c>
+      <c r="E89" s="1">
+        <f t="shared" si="16"/>
+        <v>0.61518563909023383</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="17"/>
+        <v>0.2921840759678595</v>
+      </c>
+      <c r="G89" s="1">
+        <f t="shared" si="18"/>
+        <v>0.32300156312237432</v>
+      </c>
+      <c r="H89" s="1">
+        <f t="shared" si="19"/>
+        <v>0.85641521726255054</v>
+      </c>
+      <c r="I89" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.80441328146301094</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A90" s="1">
+        <v>86</v>
+      </c>
+      <c r="B90" s="1">
+        <f t="shared" si="21"/>
+        <v>4.4542120880328477</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="22"/>
+        <v>1.8600000000000008</v>
+      </c>
+      <c r="E90" s="1">
+        <f t="shared" si="16"/>
+        <v>0.62057648772511032</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="17"/>
+        <v>0.28905075731298396</v>
+      </c>
+      <c r="G90" s="1">
+        <f t="shared" si="18"/>
+        <v>0.33152573041212635</v>
+      </c>
+      <c r="H90" s="1">
+        <f t="shared" si="19"/>
+        <v>0.84844167453008978</v>
+      </c>
+      <c r="I90" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.79035279913224121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A91" s="1">
+        <v>87</v>
+      </c>
+      <c r="B91" s="1">
+        <f t="shared" si="21"/>
+        <v>4.4657760008054623</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="22"/>
+        <v>1.8700000000000008</v>
+      </c>
+      <c r="E91" s="1">
+        <f t="shared" si="16"/>
+        <v>0.6259384308664957</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="17"/>
+        <v>0.2859675712774169</v>
+      </c>
+      <c r="G91" s="1">
+        <f t="shared" si="18"/>
+        <v>0.3399708595890788</v>
+      </c>
+      <c r="H91" s="1">
+        <f t="shared" si="19"/>
+        <v>0.84060702810418886</v>
+      </c>
+      <c r="I91" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.77663228221124403</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A92" s="1">
+        <v>88</v>
+      </c>
+      <c r="B92" s="1">
+        <f t="shared" si="21"/>
+        <v>4.4772076822468021</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="22"/>
+        <v>1.8800000000000008</v>
+      </c>
+      <c r="E92" s="1">
+        <f t="shared" si="16"/>
+        <v>0.6312717768418582</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" si="17"/>
+        <v>0.28293345405160686</v>
+      </c>
+      <c r="G92" s="1">
+        <f t="shared" si="18"/>
+        <v>0.34833832279025134</v>
+      </c>
+      <c r="H92" s="1">
+        <f t="shared" si="19"/>
+        <v>0.83290792984213458</v>
+      </c>
+      <c r="I92" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.76324149058104318</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A93" s="1">
+        <v>89</v>
+      </c>
+      <c r="B93" s="1">
+        <f t="shared" si="21"/>
+        <v>4.4885101230461153</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="22"/>
+        <v>1.8900000000000008</v>
+      </c>
+      <c r="E93" s="1">
+        <f t="shared" si="16"/>
+        <v>0.63657682907155144</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="17"/>
+        <v>0.27994736989445962</v>
+      </c>
+      <c r="G93" s="1">
+        <f t="shared" si="18"/>
+        <v>0.35662945917709182</v>
+      </c>
+      <c r="H93" s="1">
+        <f t="shared" si="19"/>
+        <v>0.82534113216344895</v>
+      </c>
+      <c r="I93" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.75017054935941196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A94" s="1">
+        <v>90</v>
+      </c>
+      <c r="B94" s="1">
+        <f t="shared" si="21"/>
+        <v>4.4996862135401416</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="22"/>
+        <v>1.9000000000000008</v>
+      </c>
+      <c r="E94" s="1">
+        <f t="shared" si="16"/>
+        <v>0.64185388617239525</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="17"/>
+        <v>0.27700831024930728</v>
+      </c>
+      <c r="G94" s="1">
+        <f t="shared" si="18"/>
+        <v>0.36484557592308797</v>
+      </c>
+      <c r="H94" s="1">
+        <f t="shared" si="19"/>
+        <v>0.81790348447295469</v>
+      </c>
+      <c r="I94" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.73740993393236609</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A95" s="1">
+        <v>91</v>
+      </c>
+      <c r="B95" s="1">
+        <f t="shared" si="21"/>
+        <v>4.5107387481543331</v>
+      </c>
+      <c r="D95" s="1">
+        <f>D94+0.01</f>
+        <v>1.9100000000000008</v>
+      </c>
+      <c r="E95" s="1">
+        <f t="shared" si="16"/>
+        <v>0.64710324205853897</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="17"/>
+        <v>0.27411529289219022</v>
+      </c>
+      <c r="G95" s="1">
+        <f t="shared" si="18"/>
+        <v>0.37298794916634875</v>
+      </c>
+      <c r="H95" s="1">
+        <f t="shared" si="19"/>
+        <v>0.81059192973004179</v>
+      </c>
+      <c r="I95" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.72495045567641769</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A96" s="1">
+        <v>92</v>
+      </c>
+      <c r="B96" s="1">
+        <f t="shared" si="21"/>
+        <v>4.5216704296010253</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" ref="D96:D103" si="23">D95+0.01</f>
+        <v>1.9200000000000008</v>
+      </c>
+      <c r="E96" s="1">
+        <f t="shared" si="16"/>
+        <v>0.65232518603969059</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="17"/>
+        <v>0.27126736111111088</v>
+      </c>
+      <c r="G96" s="1">
+        <f t="shared" si="18"/>
+        <v>0.3810578249285797</v>
+      </c>
+      <c r="H96" s="1">
+        <f t="shared" si="19"/>
+        <v>0.80340350115740689</v>
+      </c>
+      <c r="I96" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.71278324833622586</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A97" s="1">
+        <v>93</v>
+      </c>
+      <c r="B97" s="1">
+        <f t="shared" si="21"/>
+        <v>4.5324838728503307</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="23"/>
+        <v>1.9300000000000008</v>
+      </c>
+      <c r="E97" s="1">
+        <f t="shared" si="16"/>
+        <v>0.65752000291679458</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="17"/>
+        <v>0.26846358291497735</v>
+      </c>
+      <c r="G97" s="1">
+        <f t="shared" si="18"/>
+        <v>0.38905642000181723</v>
+      </c>
+      <c r="H97" s="1">
+        <f t="shared" si="19"/>
+        <v>0.79633531908287769</v>
+      </c>
+      <c r="I97" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.70089975502425883</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A98" s="1">
+        <v>94</v>
+      </c>
+      <c r="B98" s="1">
+        <f t="shared" si="21"/>
+        <v>4.543181608888383</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="23"/>
+        <v>1.9400000000000008</v>
+      </c>
+      <c r="E98" s="1">
+        <f t="shared" si="16"/>
+        <v>0.66268797307523719</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="17"/>
+        <v>0.26570305027101687</v>
+      </c>
+      <c r="G98" s="1">
+        <f t="shared" si="18"/>
+        <v>0.39698492280422032</v>
+      </c>
+      <c r="H98" s="1">
+        <f t="shared" si="19"/>
+        <v>0.78938458790826438</v>
+      </c>
+      <c r="I98" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.68929171581095194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A99" s="1">
+        <v>95</v>
+      </c>
+      <c r="B99" s="1">
+        <f t="shared" si="21"/>
+        <v>4.5537660882764408</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="23"/>
+        <v>1.9500000000000008</v>
+      </c>
+      <c r="E99" s="1">
+        <f t="shared" si="16"/>
+        <v>0.66782937257565589</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" si="17"/>
+        <v>0.26298487836949352</v>
+      </c>
+      <c r="G99" s="1">
+        <f t="shared" si="18"/>
+        <v>0.40484449420616236</v>
+      </c>
+      <c r="H99" s="1">
+        <f t="shared" si="19"/>
+        <v>0.78254859319948011</v>
+      </c>
+      <c r="I99" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.67795115587559729</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A100" s="1">
+        <v>96</v>
+      </c>
+      <c r="B100" s="1">
+        <f t="shared" si="21"/>
+        <v>4.5642396845233915</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="23"/>
+        <v>1.9600000000000009</v>
+      </c>
+      <c r="E100" s="1">
+        <f t="shared" si="16"/>
+        <v>0.67294447324242634</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="17"/>
+        <v>0.2603082049146187</v>
+      </c>
+      <c r="G100" s="1">
+        <f t="shared" si="18"/>
+        <v>0.41263626832780764</v>
+      </c>
+      <c r="H100" s="1">
+        <f t="shared" si="19"/>
+        <v>0.77582469889246775</v>
+      </c>
+      <c r="I100" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.66687037418984541</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A101" s="1">
+        <v>97</v>
+      </c>
+      <c r="B101" s="1">
+        <f t="shared" si="21"/>
+        <v>4.5746046972832746</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="23"/>
+        <v>1.9700000000000009</v>
+      </c>
+      <c r="E101" s="1">
+        <f t="shared" si="16"/>
+        <v>0.67803354274989758</v>
+      </c>
+      <c r="F101" s="1">
+        <f t="shared" si="17"/>
+        <v>0.25767218944059345</v>
+      </c>
+      <c r="G101" s="1">
+        <f t="shared" si="18"/>
+        <v>0.42036135330930413</v>
+      </c>
+      <c r="H101" s="1">
+        <f t="shared" si="19"/>
+        <v>0.76921034460973914</v>
+      </c>
+      <c r="I101" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.65604193270724787</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A102" s="1">
+        <v>98</v>
+      </c>
+      <c r="B102" s="1">
+        <f t="shared" si="21"/>
+        <v>4.5848633553886069</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="23"/>
+        <v>1.9800000000000009</v>
+      </c>
+      <c r="E102" s="1">
+        <f t="shared" si="16"/>
+        <v>0.68309684470644427</v>
+      </c>
+      <c r="F102" s="1">
+        <f t="shared" si="17"/>
+        <v>0.25507601265176999</v>
+      </c>
+      <c r="G102" s="1">
+        <f t="shared" si="18"/>
+        <v>0.42802083205467428</v>
+      </c>
+      <c r="H102" s="1">
+        <f t="shared" si="19"/>
+        <v>0.76270304308259562</v>
+      </c>
+      <c r="I102" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.64545864603372549</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A103" s="1">
+        <v>99</v>
+      </c>
+      <c r="B103" s="1">
+        <f t="shared" si="21"/>
+        <v>4.5950178197295291</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="23"/>
+        <v>1.9900000000000009</v>
+      </c>
+      <c r="E103" s="1">
+        <f t="shared" si="16"/>
+        <v>0.68813463873640146</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" si="17"/>
+        <v>0.25251887578596477</v>
+      </c>
+      <c r="G103" s="1">
+        <f t="shared" si="18"/>
+        <v>0.43561576295043669</v>
+      </c>
+      <c r="H103" s="1">
+        <f t="shared" si="19"/>
+        <v>0.75630037767433611</v>
+      </c>
+      <c r="I103" s="1">
+        <f t="shared" si="20"/>
+        <v>-0.63511357155520987</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Математика/ДЗ_1.xlsx
+++ b/Математика/ДЗ_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tony_\OneDrive\Документы\omstu-works-2\Математика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BA83B0-4340-49B2-9611-A91C2D0A0708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A970587-56B2-4F9C-8EBF-9DFA8D1CAF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{1CF31AF0-7197-4C31-9E7C-A0D24E014F79}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{1CF31AF0-7197-4C31-9E7C-A0D24E014F79}"/>
   </bookViews>
   <sheets>
     <sheet name="метод половинного деления" sheetId="1" r:id="rId1"/>
@@ -4849,7 +4849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A39C61-D37F-4390-8BB5-1D2231BEB643}">
   <dimension ref="A1:S103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
@@ -7892,7 +7892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690C8C8E-D45F-487D-9FBC-F5553011C478}">
   <dimension ref="A1:W103"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
@@ -8975,7 +8975,7 @@
         <v>1.59375</v>
       </c>
       <c r="T30" s="1" t="str">
-        <f t="shared" ref="T30:T35" si="7">IF(ABS(N30)&lt;(2*$W$29), "ВСЁ","ЕЩЁ")</f>
+        <f t="shared" ref="T30:T33" si="7">IF(ABS(N30)&lt;(2*$W$29), "ВСЁ","ЕЩЁ")</f>
         <v>ЕЩЁ</v>
       </c>
     </row>
@@ -9015,35 +9015,35 @@
         <v>2</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" ref="L31:L35" si="8">L30+Q30</f>
+        <f t="shared" ref="L31:L33" si="8">L30+Q30</f>
         <v>1.5057681114028041</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" ref="M31:M35" si="9">M30+R30</f>
+        <f t="shared" ref="M31:M33" si="9">M30+R30</f>
         <v>1.5517947816718816</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" ref="N31:N35" si="10">M31-L31</f>
+        <f t="shared" ref="N31:N33" si="10">M31-L31</f>
         <v>4.6026670269077474E-2</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" ref="O31:O35" si="11">LN(L31)-1/(L31^2)</f>
+        <f t="shared" ref="O31:O33" si="11">LN(L31)-1/(L31^2)</f>
         <v>-3.1742778931296567E-2</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" ref="P31:P35" si="12">LN(M31)-1/(M31^2)</f>
+        <f t="shared" ref="P31:P33" si="12">LN(M31)-1/(M31^2)</f>
         <v>2.4141354810916116E-2</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" ref="Q31:Q35" si="13">-O31/S31</f>
+        <f t="shared" ref="Q31:Q33" si="13">-O31/S31</f>
         <v>2.5395819304983473E-2</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" ref="R31:R35" si="14">-(P31*N31)/(P31-O31)</f>
+        <f t="shared" ref="R31:R33" si="14">-(P31*N31)/(P31-O31)</f>
         <v>-1.9883034831611374E-2</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" ref="S31:S35" si="15">1/L31+2/(L31^3)</f>
+        <f t="shared" ref="S31:S33" si="15">1/L31+2/(L31^3)</f>
         <v>1.2499214358903403</v>
       </c>
       <c r="T31" s="1" t="str">
